--- a/数据整理/stocks/A股/科创板/688248-南网科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688248-南网科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,217 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688248-南网科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688248-南网科技.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,205 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010994</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时创新经济混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2385</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010508</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时鑫康混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>26.33</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0751</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010995</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时创新经济混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0215</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010511</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时鑫康混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>26.33</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -868,64 +728,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.46</v>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.34</v>
+          <t>010508</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时鑫康混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010511</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时鑫康混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688248-南网科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688248-南网科技.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>0.46</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -515,6 +532,1732 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7225</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5265</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4734</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4151</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4113</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3125</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2669</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013007</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014333</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>65.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014560</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014561</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015159</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014334</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>65.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013312</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015172</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015165</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015174</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>63.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -722,7 +2465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688248-南网科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688248-南网科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>6.43</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>0.46</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -532,6 +549,2410 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9485</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4594</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8829</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6488</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5223</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5205</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5169</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3576</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2789</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013561</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014666</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012102</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014380</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014667</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013007</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011729</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银聚享混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013771</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中加龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013772</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中加龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013562</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中融匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012103</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国寿安保低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013312</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>016579</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015174</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011730</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银聚享混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015165</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2257,7 +4678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2465,7 +4886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
